--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N2">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O2">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P2">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q2">
-        <v>134.398110258588</v>
+        <v>141.6845878282612</v>
       </c>
       <c r="R2">
-        <v>134.398110258588</v>
+        <v>566.738351313045</v>
       </c>
       <c r="S2">
-        <v>0.08247735890505312</v>
+        <v>0.07795927093401067</v>
       </c>
       <c r="T2">
-        <v>0.08247735890505312</v>
+        <v>0.04867254659951422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N3">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P3">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q3">
-        <v>56.93110802318464</v>
+        <v>79.66281793951134</v>
       </c>
       <c r="R3">
-        <v>56.93110802318464</v>
+        <v>477.9769076370681</v>
       </c>
       <c r="S3">
-        <v>0.03493745128005256</v>
+        <v>0.04383296237302076</v>
       </c>
       <c r="T3">
-        <v>0.03493745128005256</v>
+        <v>0.04104954827312637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N4">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O4">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P4">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q4">
-        <v>19.93283681537954</v>
+        <v>20.90306553733917</v>
       </c>
       <c r="R4">
-        <v>19.93283681537954</v>
+        <v>125.418393224035</v>
       </c>
       <c r="S4">
-        <v>0.01223237241100169</v>
+        <v>0.01150151738135458</v>
       </c>
       <c r="T4">
-        <v>0.01223237241100169</v>
+        <v>0.01077116552019114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N5">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O5">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P5">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q5">
-        <v>53.05056035883997</v>
+        <v>54.72369301043283</v>
       </c>
       <c r="R5">
-        <v>53.05056035883997</v>
+        <v>328.342158062597</v>
       </c>
       <c r="S5">
-        <v>0.03255603890866939</v>
+        <v>0.03011067946981735</v>
       </c>
       <c r="T5">
-        <v>0.03255603890866939</v>
+        <v>0.02819863690512692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N6">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O6">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P6">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q6">
-        <v>38.54175158439866</v>
+        <v>38.98255417662934</v>
       </c>
       <c r="R6">
-        <v>38.54175158439866</v>
+        <v>233.895325059776</v>
       </c>
       <c r="S6">
-        <v>0.02365228106362249</v>
+        <v>0.02144941485406508</v>
       </c>
       <c r="T6">
-        <v>0.02365228106362249</v>
+        <v>0.02008736673988068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N7">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O7">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P7">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q7">
-        <v>133.6725610094629</v>
+        <v>143.951701198489</v>
       </c>
       <c r="R7">
-        <v>133.6725610094629</v>
+        <v>575.8068047939561</v>
       </c>
       <c r="S7">
-        <v>0.0820321042380921</v>
+        <v>0.07920670728666419</v>
       </c>
       <c r="T7">
-        <v>0.0820321042380921</v>
+        <v>0.04945136229746822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N8">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O8">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P8">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q8">
-        <v>40.56316052210315</v>
+        <v>45.3264059312825</v>
       </c>
       <c r="R8">
-        <v>40.56316052210315</v>
+        <v>271.958435587695</v>
       </c>
       <c r="S8">
-        <v>0.02489277819656698</v>
+        <v>0.02493999957670036</v>
       </c>
       <c r="T8">
-        <v>0.02489277819656698</v>
+        <v>0.02335629766117857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N9">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P9">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q9">
-        <v>17.18257547671188</v>
+        <v>25.48498237460311</v>
       </c>
       <c r="R9">
-        <v>17.18257547671188</v>
+        <v>229.364841371428</v>
       </c>
       <c r="S9">
-        <v>0.0105445935346801</v>
+        <v>0.01402263066254178</v>
       </c>
       <c r="T9">
-        <v>0.0105445935346801</v>
+        <v>0.01969828035119961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N10">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O10">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P10">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q10">
-        <v>6.015998720870871</v>
+        <v>6.687112891220558</v>
       </c>
       <c r="R10">
-        <v>6.015998720870871</v>
+        <v>60.18401602098501</v>
       </c>
       <c r="S10">
-        <v>0.003691894809524685</v>
+        <v>0.003679457685862659</v>
       </c>
       <c r="T10">
-        <v>0.003691894809524685</v>
+        <v>0.005168715541379099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N11">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O11">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P11">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q11">
-        <v>16.01137390609733</v>
+        <v>17.50669117558745</v>
       </c>
       <c r="R11">
-        <v>16.01137390609733</v>
+        <v>157.560220580287</v>
       </c>
       <c r="S11">
-        <v>0.009825851194450168</v>
+        <v>0.009632726476714516</v>
       </c>
       <c r="T11">
-        <v>0.009825851194450168</v>
+        <v>0.01353156559928617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N12">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O12">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P12">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q12">
-        <v>11.63241992996019</v>
+        <v>12.47093351458845</v>
       </c>
       <c r="R12">
-        <v>11.63241992996019</v>
+        <v>112.238401631296</v>
       </c>
       <c r="S12">
-        <v>0.007138577109839339</v>
+        <v>0.006861895846020231</v>
       </c>
       <c r="T12">
-        <v>0.007138577109839339</v>
+        <v>0.009639243261017165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N13">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O13">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P13">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q13">
-        <v>40.34417998285058</v>
+        <v>46.05167960067934</v>
       </c>
       <c r="R13">
-        <v>40.34417998285058</v>
+        <v>276.310077604076</v>
       </c>
       <c r="S13">
-        <v>0.02475839433882965</v>
+        <v>0.02533906772772853</v>
       </c>
       <c r="T13">
-        <v>0.02475839433882965</v>
+        <v>0.02373002479352454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N14">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O14">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P14">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q14">
-        <v>98.47554001207351</v>
+        <v>103.759679995565</v>
       </c>
       <c r="R14">
-        <v>98.47554001207351</v>
+        <v>622.5580799733899</v>
       </c>
       <c r="S14">
-        <v>0.06043241561445774</v>
+        <v>0.05709180602342842</v>
       </c>
       <c r="T14">
-        <v>0.06043241561445774</v>
+        <v>0.05346644900279832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N15">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P15">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q15">
-        <v>41.7142889530365</v>
+        <v>58.33936226689512</v>
       </c>
       <c r="R15">
-        <v>41.7142889530365</v>
+        <v>525.054260402056</v>
       </c>
       <c r="S15">
-        <v>0.02559920206339984</v>
+        <v>0.03210013325228508</v>
       </c>
       <c r="T15">
-        <v>0.02559920206339984</v>
+        <v>0.04509263912965106</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N16">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O16">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P16">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q16">
-        <v>14.60509277690243</v>
+        <v>15.30791333288556</v>
       </c>
       <c r="R16">
-        <v>14.60509277690243</v>
+        <v>137.77121999597</v>
       </c>
       <c r="S16">
-        <v>0.008962845359093937</v>
+        <v>0.008422890458624309</v>
       </c>
       <c r="T16">
-        <v>0.008962845359093937</v>
+        <v>0.01183204932186036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N17">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O17">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P17">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q17">
-        <v>38.87095264381549</v>
+        <v>40.07572709193044</v>
       </c>
       <c r="R17">
-        <v>38.87095264381549</v>
+        <v>360.681543827374</v>
       </c>
       <c r="S17">
-        <v>0.02385430498997982</v>
+        <v>0.02205091262307424</v>
       </c>
       <c r="T17">
-        <v>0.02385430498997982</v>
+        <v>0.03097600366880008</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N18">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O18">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P18">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q18">
-        <v>28.240127729343</v>
+        <v>28.54804046633244</v>
       </c>
       <c r="R18">
-        <v>28.240127729343</v>
+        <v>256.932364196992</v>
       </c>
       <c r="S18">
-        <v>0.01733038616224689</v>
+        <v>0.01570802057911611</v>
       </c>
       <c r="T18">
-        <v>0.01733038616224689</v>
+        <v>0.02206583062594586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N19">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O19">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P19">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q19">
-        <v>97.94391903931226</v>
+        <v>105.4199520224253</v>
       </c>
       <c r="R19">
-        <v>97.94391903931226</v>
+        <v>632.519712134552</v>
       </c>
       <c r="S19">
-        <v>0.06010617074622619</v>
+        <v>0.05800533937769172</v>
       </c>
       <c r="T19">
-        <v>0.06010617074622619</v>
+        <v>0.05432197255162476</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N20">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O20">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P20">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q20">
-        <v>97.09446117205789</v>
+        <v>102.8552499761875</v>
       </c>
       <c r="R20">
-        <v>97.09446117205789</v>
+        <v>617.131499857125</v>
       </c>
       <c r="S20">
-        <v>0.05958487590616141</v>
+        <v>0.0565941604714156</v>
       </c>
       <c r="T20">
-        <v>0.05958487590616141</v>
+        <v>0.05300040418163356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N21">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P21">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q21">
-        <v>41.12926325231658</v>
+        <v>57.83084228545555</v>
       </c>
       <c r="R21">
-        <v>41.12926325231658</v>
+        <v>520.4775805691</v>
       </c>
       <c r="S21">
-        <v>0.02524018381088037</v>
+        <v>0.03182032972801992</v>
       </c>
       <c r="T21">
-        <v>0.02524018381088037</v>
+        <v>0.04469958532991348</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N22">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O22">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P22">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q22">
-        <v>14.40026237345228</v>
+        <v>15.17448061265278</v>
       </c>
       <c r="R22">
-        <v>14.40026237345228</v>
+        <v>136.570325513875</v>
       </c>
       <c r="S22">
-        <v>0.008837145148968061</v>
+        <v>0.008349471622126028</v>
       </c>
       <c r="T22">
-        <v>0.008837145148968061</v>
+        <v>0.0117289142640238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N23">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O23">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P23">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q23">
-        <v>38.32580356231728</v>
+        <v>39.72640362994722</v>
       </c>
       <c r="R23">
-        <v>38.32580356231728</v>
+        <v>357.537632669525</v>
       </c>
       <c r="S23">
-        <v>0.02351975819936664</v>
+        <v>0.0218587039796799</v>
       </c>
       <c r="T23">
-        <v>0.02351975819936664</v>
+        <v>0.03070599871504918</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N24">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O24">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P24">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q24">
-        <v>27.84407158340511</v>
+        <v>28.29919905902222</v>
       </c>
       <c r="R24">
-        <v>27.84407158340511</v>
+        <v>254.6927915312</v>
       </c>
       <c r="S24">
-        <v>0.01708733464290469</v>
+        <v>0.01557110029025863</v>
       </c>
       <c r="T24">
-        <v>0.01708733464290469</v>
+        <v>0.02187349194851877</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N25">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O25">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P25">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q25">
-        <v>96.57029596421349</v>
+        <v>104.5010501016167</v>
       </c>
       <c r="R25">
-        <v>96.57029596421349</v>
+        <v>627.0063006097</v>
       </c>
       <c r="S25">
-        <v>0.05926320648767223</v>
+        <v>0.05749973093499407</v>
       </c>
       <c r="T25">
-        <v>0.05926320648767223</v>
+        <v>0.05384847048714664</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H26">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I26">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J26">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N26">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O26">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P26">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q26">
-        <v>94.64241801463888</v>
+        <v>104.429120255445</v>
       </c>
       <c r="R26">
-        <v>94.64241801463888</v>
+        <v>626.57472153267</v>
       </c>
       <c r="S26">
-        <v>0.05808010740044348</v>
+        <v>0.05746015289441892</v>
       </c>
       <c r="T26">
-        <v>0.05808010740044348</v>
+        <v>0.05381140567109977</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H27">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I27">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J27">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N27">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P27">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q27">
-        <v>40.0905765207551</v>
+        <v>58.71575816401867</v>
       </c>
       <c r="R27">
-        <v>40.0905765207551</v>
+        <v>528.441823476168</v>
       </c>
       <c r="S27">
-        <v>0.02460276310471059</v>
+        <v>0.03230723799227185</v>
       </c>
       <c r="T27">
-        <v>0.02460276310471059</v>
+        <v>0.04538356936439079</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H28">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I28">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J28">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N28">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O28">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P28">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q28">
-        <v>14.03659523537227</v>
+        <v>15.40667745282333</v>
       </c>
       <c r="R28">
-        <v>14.03659523537227</v>
+        <v>138.66009707541</v>
       </c>
       <c r="S28">
-        <v>0.008613970098279569</v>
+        <v>0.008477233551989701</v>
       </c>
       <c r="T28">
-        <v>0.008613970098279569</v>
+        <v>0.0119083877432325</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H29">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I29">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J29">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N29">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O29">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P29">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q29">
-        <v>37.35791596869819</v>
+        <v>40.33428904162466</v>
       </c>
       <c r="R29">
-        <v>37.35791596869819</v>
+        <v>363.008601374622</v>
       </c>
       <c r="S29">
-        <v>0.02292578546950402</v>
+        <v>0.02219318145695666</v>
       </c>
       <c r="T29">
-        <v>0.02292578546950402</v>
+        <v>0.03117585571100926</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H30">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I30">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J30">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N30">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O30">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P30">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q30">
-        <v>27.14089176885538</v>
+        <v>28.73222769233066</v>
       </c>
       <c r="R30">
-        <v>27.14089176885538</v>
+        <v>258.590049230976</v>
       </c>
       <c r="S30">
-        <v>0.01665580763833729</v>
+        <v>0.01580936612469926</v>
       </c>
       <c r="T30">
-        <v>0.01665580763833729</v>
+        <v>0.02220819570831054</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H31">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I31">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J31">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N31">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O31">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P31">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q31">
-        <v>94.13149018095297</v>
+        <v>106.100104082276</v>
       </c>
       <c r="R31">
-        <v>94.13149018095297</v>
+        <v>636.600624493656</v>
       </c>
       <c r="S31">
-        <v>0.05776656148649861</v>
+        <v>0.05837958021448968</v>
       </c>
       <c r="T31">
-        <v>0.05776656148649861</v>
+        <v>0.0546724489160826</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H32">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I32">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J32">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N32">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O32">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P32">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q32">
-        <v>36.52219607050611</v>
+        <v>38.50593263299125</v>
       </c>
       <c r="R32">
-        <v>36.52219607050611</v>
+        <v>154.023730531965</v>
       </c>
       <c r="S32">
-        <v>0.02241292133879071</v>
+        <v>0.02118716284329235</v>
       </c>
       <c r="T32">
-        <v>0.02241292133879071</v>
+        <v>0.01322784523824677</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H33">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I33">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J33">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N33">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P33">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q33">
-        <v>15.47082087488689</v>
+        <v>21.650139566706</v>
       </c>
       <c r="R33">
-        <v>15.47082087488689</v>
+        <v>129.900837400236</v>
       </c>
       <c r="S33">
-        <v>0.00949412490546755</v>
+        <v>0.01191258076909416</v>
       </c>
       <c r="T33">
-        <v>0.00949412490546755</v>
+        <v>0.01115612618597349</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H34">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I34">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J34">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N34">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O34">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P34">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q34">
-        <v>5.416675673579092</v>
+        <v>5.680872180532502</v>
       </c>
       <c r="R34">
-        <v>5.416675673579092</v>
+        <v>34.08523308319501</v>
       </c>
       <c r="S34">
-        <v>0.003324102569169166</v>
+        <v>0.003125792722073886</v>
       </c>
       <c r="T34">
-        <v>0.003324102569169166</v>
+        <v>0.002927303387451073</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H35">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I35">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J35">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N35">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O35">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P35">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q35">
-        <v>14.41629620645626</v>
+        <v>14.8723786319115</v>
       </c>
       <c r="R35">
-        <v>14.41629620645626</v>
+        <v>89.23427179146901</v>
       </c>
       <c r="S35">
-        <v>0.008846984782849438</v>
+        <v>0.008183245707738939</v>
       </c>
       <c r="T35">
-        <v>0.008846984782849438</v>
+        <v>0.007663605686788856</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H36">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I36">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J36">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N36">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O36">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P36">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q36">
-        <v>10.47358036179084</v>
+        <v>10.594374645792</v>
       </c>
       <c r="R36">
-        <v>10.47358036179084</v>
+        <v>63.56624787475201</v>
       </c>
       <c r="S36">
-        <v>0.006427421076518751</v>
+        <v>0.005829354738207927</v>
       </c>
       <c r="T36">
-        <v>0.006427421076518751</v>
+        <v>0.005459187920972666</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H37">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I37">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J37">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N37">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O37">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P37">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q37">
-        <v>36.32503070944285</v>
+        <v>39.12207102915301</v>
       </c>
       <c r="R37">
-        <v>36.32503070944285</v>
+        <v>156.488284116612</v>
       </c>
       <c r="S37">
-        <v>0.02229192500769074</v>
+        <v>0.02152618136955184</v>
       </c>
       <c r="T37">
-        <v>0.02229192500769074</v>
+        <v>0.01343950569658317</v>
       </c>
     </row>
   </sheetData>
